--- a/biology/Botanique/Paphinia_neudeckeri/Paphinia_neudeckeri.xlsx
+++ b/biology/Botanique/Paphinia_neudeckeri/Paphinia_neudeckeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paphinia neudeckeri Jenny est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) et appartenant à la sous-tribu des Stanhopeinae.
 C'est une plante proche de Paphinia herrerae.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nommée en l’honneur du Dr Tilman Neudecker, professeur à l’Institut de pharmacologie et de toxicologie de l’université de Würzburg (Allemagne).
 </t>
@@ -543,7 +557,9 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Herba epiphytica bulbis ovalibus leviter compressis sursum conoideis, bifolia, 3-4 cm longa et 2-3 cm lata. Folia textura mollia, plicata, lanceolata et acuminata, 20-25 cm longa et 3 cm lata. Inflorenscentia impendens vel oblique e basi ascendens, 2-5 flora, usque 15 cm longa. Bracteae angustae, longae, acuminatae, ab inflorescentia distantes, 1 cm longae et 0.5 cm latae. Ovarium c. 5 cm longum. Flores columna supra labellum, tenelli et fragiles, 8-12 cm diametro, saepe vix aperti. Sepala et petala lanceolata, acuminata. Sepalum dorsale 6 cm longum et 1.8 cm latum explanatum, lobi laterales parallele incurvati apice acuto prorsum spectans. Lobus anterior obtuse triangularis tertio parte anteriore margine dense piloso tentaculis 5 mm longis. Media parte inter lobos laterales callus erectus duobus pilis binis usque 5 mm longis erectis vel patentibus supra incrassatis. Columna gracilis lenites flexa apice aliquantum alata. Dua pollinia, cuneata, 2 mm longa superficie scabra, stipitibus 3 mm longis tertio parte superiore leviter compressa.
 Jenny. Die Orchidee 34(5): 191. 1983.</t>
@@ -574,7 +590,9 @@
           <t>Répartition et biotope</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Équateur et Colombie.
 La plante type a été découverte en 1982 entre Tena et Baeza, dans le département d'Oriente en Équateur à 1200 m d'altitude.
@@ -606,7 +624,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Aucune information disponible.
 </t>
